--- a/reporting/Баланс часу  по 07.06.2023.xlsx
+++ b/reporting/Баланс часу  по 07.06.2023.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCMDB\reporting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EA123A-1819-47BA-BFFB-70B44BBE32E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="150" windowWidth="15135" windowHeight="8310" tabRatio="925" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="925" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="св.№3 Клубанівсько-Зубренківськ" sheetId="48" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'св.№3 Клубанівсько-Зубренківськ'!$A$1:$D$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'св.№51 Карайкозівського НГКР'!$A$1:$D$94</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -123,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1013,8 +1019,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1036,12 +1042,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1091,7 +1100,6 @@
       <c:rotX val="30"/>
       <c:rotY val="330"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -1128,6 +1136,11 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1137,6 +1150,11 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1146,6 +1164,11 @@
                 <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1155,6 +1178,11 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1164,6 +1192,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1173,6 +1206,11 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1184,6 +1222,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1193,6 +1236,11 @@
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1202,6 +1250,11 @@
                 <a:srgbClr val="FF6699"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1211,6 +1264,11 @@
                 <a:srgbClr val="F76D5F"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1222,6 +1280,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-0553-40D0-90CF-BA41DCE8F7D8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -1259,6 +1322,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -1299,6 +1370,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -1335,6 +1414,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -1363,6 +1450,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -1399,6 +1494,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -1435,6 +1538,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -1463,6 +1574,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -1498,6 +1617,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -1525,6 +1652,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -1564,6 +1699,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -1592,6 +1735,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -1615,6 +1766,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
@@ -1644,6 +1803,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
@@ -1666,7 +1833,22 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-0553-40D0-90CF-BA41DCE8F7D8}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1677,7 +1859,7 @@
                     <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-UA"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1687,6 +1869,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
@@ -1808,6 +1993,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-0553-40D0-90CF-BA41DCE8F7D8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1836,7 +2026,7 @@
       <a:pPr>
         <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-UA"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1848,7 +2038,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1941,6 +2131,11 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1951,6 +2146,11 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1961,6 +2161,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1971,6 +2176,11 @@
                 <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1981,6 +2191,11 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1991,16 +2206,31 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:explosion val="7"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:explosion val="8"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2F65-4DC2-A31F-DB999F912565}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2019,15 +2249,7 @@
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900" b="0"/>
                       <a:t>Буріння 
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900" b="0"/>
-                      <a:t>28</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1900" b="0"/>
-                      <a:t>%</a:t>
+28%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU" sz="1800"/>
                   </a:p>
@@ -2039,6 +2261,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2059,11 +2289,7 @@
                     </a:r>
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900" b="0" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900" b="0" baseline="0"/>
-                      <a:t>2</a:t>
+                      <a:t> 2</a:t>
                     </a:r>
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900" b="0"/>
@@ -2079,6 +2305,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2101,15 +2335,7 @@
                     </a:pPr>
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900" b="0" i="0"/>
-                      <a:t>Аварія </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900" b="0" i="0"/>
-                      <a:t>38</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1900" b="0" i="0"/>
-                      <a:t>%</a:t>
+                      <a:t>Аварія 38%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU" sz="2000" i="0"/>
                   </a:p>
@@ -2122,6 +2348,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2139,15 +2373,7 @@
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900"/>
                       <a:t>ГДС 
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900"/>
-                      <a:t>3</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1900"/>
-                      <a:t>%</a:t>
+3%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2159,6 +2385,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -2175,15 +2409,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900"/>
-                      <a:t>Шаблонування </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900"/>
-                      <a:t>4</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1900"/>
-                      <a:t>%</a:t>
+                      <a:t>Шаблонування 4%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2195,6 +2421,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -2212,15 +2446,7 @@
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1900" b="0"/>
                       <a:t>СПО
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1900" b="0"/>
-                      <a:t>1</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1900" b="0"/>
-                      <a:t>%</a:t>
+1%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2232,6 +2458,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -2247,15 +2481,11 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="uk-UA"/>
-                      <a:t>Н</a:t>
+                      <a:rPr lang="ru-RU"/>
+                      <a:t>Негерметичність БТ</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="ru-RU"/>
-                      <a:t>егерметичність БТ</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:rPr lang="ru-RU" baseline="0"/>
                       <a:t> </a:t>
                     </a:r>
                     <a:r>
@@ -2271,6 +2501,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -2300,6 +2538,14 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -2315,6 +2561,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -2330,6 +2582,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -2345,6 +2603,12 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -2360,7 +2624,20 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-2F65-4DC2-A31F-DB999F912565}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2371,7 +2648,7 @@
                     <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-UA"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2381,6 +2658,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2447,12 +2727,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-2F65-4DC2-A31F-DB999F912565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:explosion val="25"/>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="1"/>
@@ -2460,6 +2752,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -2514,6 +2809,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-2F65-4DC2-A31F-DB999F912565}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2544,7 +2844,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2650,6 +2950,11 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2659,6 +2964,11 @@
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2668,6 +2978,11 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2677,6 +2992,11 @@
                 <a:srgbClr val="FFFF00"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2686,6 +3006,11 @@
                 <a:srgbClr val="7030A0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2695,6 +3020,11 @@
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2704,6 +3034,11 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2713,6 +3048,11 @@
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2722,6 +3062,11 @@
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2734,6 +3079,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -2746,6 +3096,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -2757,6 +3112,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -2784,21 +3144,7 @@
                         <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <a:t> 3</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800" baseline="0">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>6</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800" baseline="0">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+                      <a:t> 36%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU" sz="2000"/>
                   </a:p>
@@ -2811,6 +3157,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
@@ -2845,21 +3199,7 @@
                         <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <a:t>1</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>3</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+                      <a:t>13%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2872,6 +3212,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
@@ -2906,21 +3254,7 @@
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <a:t>
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>3</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+3%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2933,6 +3267,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
@@ -2952,21 +3294,7 @@
                         <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <a:t>ГДС </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>5</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+                      <a:t>ГДС 5%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -2979,6 +3307,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
@@ -3018,6 +3354,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
@@ -3037,21 +3381,7 @@
                         <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <a:t>СПО </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>9</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+                      <a:t>СПО 9%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -3064,6 +3394,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
@@ -3084,21 +3422,7 @@
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <a:t> Аварія
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>7</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+7%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -3111,6 +3435,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
@@ -3131,21 +3463,7 @@
                         <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <a:t>Ускладнення
-</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>12</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800">
-                        <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <a:t>%</a:t>
+12%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -3158,6 +3476,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="8"/>
@@ -3191,6 +3517,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
@@ -3220,6 +3554,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="10"/>
@@ -3249,6 +3591,14 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
@@ -3265,15 +3615,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="ru-RU" sz="1800"/>
-                      <a:t>Ремонтні роботи </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1800"/>
-                      <a:t>5</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="ru-RU" sz="1800"/>
-                      <a:t>%</a:t>
+                      <a:t>Ремонтні роботи 5%</a:t>
                     </a:r>
                     <a:endParaRPr lang="ru-RU"/>
                   </a:p>
@@ -3286,7 +3628,22 @@
               <c:showSerName val="1"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -3297,7 +3654,7 @@
                     <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="ru-UA"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -3308,6 +3665,9 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3438,6 +3798,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-9142-4BB5-92B4-0A1EC9BFFB2F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3494,7 +3859,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3529,7 +3900,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3564,7 +3941,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3627,7 +4010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3660,9 +4043,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3695,6 +4095,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3870,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3880,17 +4297,17 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="116.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" customWidth="1"/>
+    <col min="3" max="3" width="116.4609375" customWidth="1"/>
+    <col min="4" max="4" width="18.23046875" customWidth="1"/>
+    <col min="5" max="5" width="9.69140625" style="13" customWidth="1"/>
     <col min="6" max="6" width="10" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="140" t="s">
         <v>28</v>
@@ -3901,7 +4318,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="63" t="s">
         <v>0</v>
@@ -3920,7 +4337,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="90">
         <v>1</v>
@@ -3941,7 +4358,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="91">
         <v>2</v>
@@ -3962,7 +4379,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="92">
         <v>3</v>
@@ -3983,7 +4400,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="93">
         <v>4</v>
@@ -4004,7 +4421,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="95">
         <v>5</v>
@@ -4025,7 +4442,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="94">
         <v>6</v>
@@ -4046,7 +4463,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="96">
         <v>7</v>
@@ -4067,7 +4484,7 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="89">
         <v>8</v>
@@ -4088,7 +4505,7 @@
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="103">
         <v>10</v>
@@ -4109,7 +4526,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="97">
         <v>13</v>
@@ -4130,7 +4547,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="100">
         <v>14</v>
@@ -4151,7 +4568,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="110">
         <v>15</v>
@@ -4173,7 +4590,7 @@
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4182,7 +4599,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4193,7 +4610,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4202,7 +4619,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4211,7 +4628,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4220,7 +4637,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4229,7 +4646,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4238,7 +4655,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4247,7 +4664,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4256,7 +4673,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4265,7 +4682,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
@@ -4273,7 +4690,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="107"/>
       <c r="C26" s="108"/>
@@ -4282,7 +4699,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="107"/>
       <c r="C27" s="108"/>
@@ -4291,7 +4708,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="107"/>
       <c r="C28" s="108"/>
@@ -4300,7 +4717,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="107"/>
       <c r="C29" s="108"/>
@@ -4309,7 +4726,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="107"/>
       <c r="C30" s="108"/>
@@ -4318,7 +4735,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="107"/>
       <c r="C31" s="108"/>
@@ -4327,7 +4744,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="107"/>
       <c r="C32" s="108"/>
@@ -4336,7 +4753,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="107"/>
       <c r="C33" s="108"/>
@@ -4345,7 +4762,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="107"/>
       <c r="C34" s="108"/>
@@ -4354,7 +4771,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="107"/>
       <c r="C35" s="108"/>
@@ -4363,7 +4780,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="107"/>
       <c r="C36" s="108"/>
@@ -4372,7 +4789,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="107"/>
       <c r="C37" s="108"/>
@@ -4381,7 +4798,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="107"/>
       <c r="C38" s="108"/>
@@ -4390,7 +4807,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="107"/>
       <c r="C39" s="108"/>
@@ -4399,7 +4816,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
@@ -4408,7 +4825,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4417,7 +4834,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4426,7 +4843,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4435,7 +4852,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4444,7 +4861,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -4453,7 +4870,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -4462,7 +4879,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -4471,7 +4888,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -4480,7 +4897,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4489,7 +4906,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4498,7 +4915,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4507,7 +4924,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4516,7 +4933,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4525,7 +4942,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4534,7 +4951,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4543,7 +4960,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4552,7 +4969,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4561,7 +4978,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4570,7 +4987,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4579,7 +4996,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4588,7 +5005,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4597,7 +5014,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4606,7 +5023,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4615,7 +5032,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4624,7 +5041,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4633,7 +5050,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4642,7 +5059,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4651,7 +5068,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4660,7 +5077,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4669,7 +5086,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4678,7 +5095,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4687,7 +5104,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4696,7 +5113,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4705,7 +5122,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4714,7 +5131,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4723,7 +5140,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4732,7 +5149,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4741,7 +5158,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4750,7 +5167,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4759,7 +5176,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4768,13 +5185,13 @@
       <c r="F80" s="10"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
@@ -4785,34 +5202,34 @@
     <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.62992125984251968" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="106.21875" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="12.23046875" customWidth="1"/>
+    <col min="3" max="3" width="106.23046875" customWidth="1"/>
+    <col min="4" max="4" width="29.69140625" customWidth="1"/>
+    <col min="5" max="5" width="11.4609375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="143" t="s">
         <v>29</v>
@@ -4823,7 +5240,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="41" t="s">
         <v>0</v>
@@ -4842,7 +5259,7 @@
       </c>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="44">
         <v>1</v>
@@ -4863,7 +5280,7 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="67">
         <v>2</v>
@@ -4884,7 +5301,7 @@
       </c>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="47">
         <v>3</v>
@@ -4905,7 +5322,7 @@
       </c>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="50">
         <v>4</v>
@@ -4926,7 +5343,7 @@
       </c>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="53">
         <v>5</v>
@@ -4947,7 +5364,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="56">
         <v>6</v>
@@ -4968,7 +5385,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="B10" s="70">
         <v>7</v>
@@ -4989,7 +5406,7 @@
       </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="B11" s="59">
         <v>8</v>
@@ -5010,7 +5427,7 @@
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="110">
         <v>9</v>
@@ -5032,7 +5449,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
@@ -5041,7 +5458,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -5050,7 +5467,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5059,7 +5476,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="73"/>
@@ -5068,7 +5485,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="75"/>
@@ -5077,7 +5494,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="75"/>
@@ -5086,7 +5503,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="75"/>
@@ -5095,7 +5512,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="75"/>
@@ -5104,7 +5521,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="75"/>
@@ -5113,7 +5530,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="75"/>
@@ -5122,7 +5539,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="75"/>
@@ -5131,7 +5548,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="75"/>
@@ -5140,7 +5557,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="75"/>
@@ -5149,7 +5566,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="75"/>
@@ -5158,7 +5575,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="75"/>
@@ -5167,7 +5584,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="75"/>
@@ -5176,7 +5593,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="73"/>
@@ -5185,7 +5602,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5194,7 +5611,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5203,7 +5620,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5212,7 +5629,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5221,7 +5638,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5230,7 +5647,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5239,7 +5656,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5248,7 +5665,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5257,7 +5674,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5266,7 +5683,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5275,7 +5692,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5284,7 +5701,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5293,7 +5710,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5302,7 +5719,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5311,7 +5728,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5320,7 +5737,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5329,7 +5746,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5338,7 +5755,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5347,7 +5764,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5356,7 +5773,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5365,7 +5782,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5374,7 +5791,7 @@
       <c r="F50" s="10"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5383,7 +5800,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -5392,7 +5809,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -5401,7 +5818,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5410,7 +5827,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5419,7 +5836,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5428,7 +5845,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -5437,7 +5854,7 @@
       <c r="F57" s="10"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5446,7 +5863,7 @@
       <c r="F58" s="10"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5455,7 +5872,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5464,7 +5881,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5473,7 +5890,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5482,7 +5899,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5491,7 +5908,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5500,7 +5917,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5509,7 +5926,7 @@
       <c r="F65" s="10"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -5518,7 +5935,7 @@
       <c r="F66" s="10"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5527,7 +5944,7 @@
       <c r="F67" s="10"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5536,7 +5953,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5545,7 +5962,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5554,7 +5971,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5563,7 +5980,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5572,7 +5989,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5581,7 +5998,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5590,7 +6007,7 @@
       <c r="F74" s="10"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5599,7 +6016,7 @@
       <c r="F75" s="10"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5608,7 +6025,7 @@
       <c r="F76" s="10"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5617,7 +6034,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5626,7 +6043,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5635,7 +6052,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5644,7 +6061,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5653,7 +6070,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5662,7 +6079,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5671,7 +6088,7 @@
       <c r="F83" s="10"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5680,7 +6097,7 @@
       <c r="F84" s="10"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5689,11 +6106,11 @@
       <c r="F85" s="10"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="G87" s="1"/>
     </row>
@@ -5702,62 +6119,62 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="3" max="3" width="112.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" customWidth="1"/>
+    <col min="3" max="3" width="112.3046875" customWidth="1"/>
+    <col min="4" max="4" width="29.69140625" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.4">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.45">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="22"/>
       <c r="B7" s="140" t="s">
         <v>30</v>
@@ -5767,7 +6184,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="111" t="s">
         <v>0</v>
@@ -5785,7 +6202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="46" x14ac:dyDescent="0.45">
       <c r="A9" s="22"/>
       <c r="B9" s="137">
         <v>1</v>
@@ -5806,7 +6223,7 @@
       </c>
       <c r="G9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="23" x14ac:dyDescent="0.45">
       <c r="A10" s="22"/>
       <c r="B10" s="67">
         <v>2</v>
@@ -5827,7 +6244,7 @@
       </c>
       <c r="G10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="120">
         <v>3</v>
@@ -5847,7 +6264,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22"/>
       <c r="B12" s="106">
         <v>4</v>
@@ -5867,7 +6284,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="122">
         <v>5</v>
@@ -5887,7 +6304,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="123">
         <v>6</v>
@@ -5907,7 +6324,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="47">
         <v>7</v>
@@ -5927,7 +6344,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="23" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="124">
         <v>8</v>
@@ -5947,7 +6364,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="23" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="126">
         <v>9</v>
@@ -5967,7 +6384,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="23" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="128">
         <v>10</v>
@@ -5987,7 +6404,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="23" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="130">
         <v>11</v>
@@ -6007,7 +6424,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="23" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="132">
         <v>12</v>
@@ -6027,7 +6444,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="23.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="22"/>
       <c r="B21" s="134">
         <v>13</v>
@@ -6048,64 +6465,64 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="23" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="66"/>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="D25" s="18"/>
     </row>
-    <row r="26" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="D26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="66"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="D28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="D29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="66"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.4">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="D31" s="18"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="66"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" s="66"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C39" s="66"/>
     </row>
   </sheetData>
@@ -6113,22 +6530,22 @@
     <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="30" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="3" width="8.88671875" customWidth="1"/>
+    <col min="2" max="3" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
